--- a/database/relatorio/PE 90004-2024/DENTAL_UNIVERSO_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/DENTAL_UNIVERSO_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,96 +446,147 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Peças - equipamento odontológico, material aço inoxidável, tipo gancho labial, aplicação localizador eletrônico de ápice de canal dentário, características adicionais autoclavável</t>
+          <t>Peças - equipamento odontológico, material aço inoxidável, tipo gancho labial, aplicação localizador eletrônico de ápice de canal dentário, características adicionais autoclavável</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 5.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 33.0</t>
+          <t>Marca:  SCHUSTER</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 165.0</t>
+          <t>Modelo:  SCHUSTER</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 33,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 165,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 136 - RESINA COMPOSTA (390513)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Resina composta, tipo: fotopolimerizável, tamanho partículas: microhíbrida, aspecto físico: escupível, qualidade igual ou superior à referência: Z350 – 3M.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 100.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 147.99</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 14799.0</t>
+          <t>Resina composta, tipo: fotopolimerizável, tamanho partículas: microhíbrida, aspecto físico: escupível, qualidade igual ou superior à referência: Z350 – 3M.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 157 - TESOURA INSTRUMENTAL (471755)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  3M DO BRASIL</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Z350XT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Tesoura instrumental, modelo 1: stevens, tipo ponta: ponta reta, característica ponta: romba, haste: haste reta, comprimento total: cerca de 10 cm, material: aço inoxidável, esterilidade: esterilizável</t>
+          <t>Quantidade: 100</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 147,99</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 14.799,00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 59.9</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 299.5</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 157 - TESOURA INSTRUMENTAL (471755)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Tesoura instrumental, modelo 1: stevens, tipo ponta: ponta reta, característica ponta: romba, haste: haste reta, comprimento total: cerca de 10 cm, material: aço inoxidável, esterilidade: esterilizável</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  GOLGRAN</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  GOLGRAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 59,90</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 299,50</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/database/relatorio/PE 90004-2024/DENTAL_UNIVERSO_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/DENTAL_UNIVERSO_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 82 - PEÇAS - EQUIPAMENTO ODONTOLÓGICO (424286)</t>
+          <t>Item 82 - PEÇAS - EQUIPAMENTO ODONTOLÓGICO (424286)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 136 - RESINA COMPOSTA (390513)</t>
+          <t>Item 136 - RESINA COMPOSTA (390513)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 157 - TESOURA INSTRUMENTAL (471755)</t>
+          <t>Item 157 - TESOURA INSTRUMENTAL (471755)</t>
         </is>
       </c>
     </row>
